--- a/data/trans_dic/P37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1776475984241234</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3744710283431403</v>
+        <v>0.3744710283431402</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1505382878531245</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1254378918748235</v>
+        <v>0.1252786879757646</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1718931703924879</v>
+        <v>0.1728293570143615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1441290917920712</v>
+        <v>0.1445573962030423</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2872127054003659</v>
+        <v>0.2865225126661521</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1207707915339615</v>
+        <v>0.1244396078177868</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1633586391972982</v>
+        <v>0.1612330778138967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1493031752916021</v>
+        <v>0.1503520333314995</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.344922020701456</v>
+        <v>0.3462457331415186</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1315239055431878</v>
+        <v>0.1305119525666183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1746463393946636</v>
+        <v>0.1753502598117447</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.155050814982977</v>
+        <v>0.1549947271329767</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3262753673748139</v>
+        <v>0.3273169807487322</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1798126669593794</v>
+        <v>0.1784935872318231</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2383289675261563</v>
+        <v>0.2348162244750394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2021753923976317</v>
+        <v>0.1990011450217518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3572259211054996</v>
+        <v>0.3548071323678416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1754854999777983</v>
+        <v>0.1773045632551365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2237079446112681</v>
+        <v>0.2197512775110273</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2069974192375252</v>
+        <v>0.2123408953590379</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4008950355035967</v>
+        <v>0.4058630604523971</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1699185474848194</v>
+        <v>0.1711745617054498</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2193286477059714</v>
+        <v>0.2200088765699519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1950114729310414</v>
+        <v>0.1981293528978526</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3718287891462591</v>
+        <v>0.3724958041099031</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1627883238851104</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3124905534845919</v>
+        <v>0.3124905534845918</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1195806949369226</v>
+        <v>0.1173176809351894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1501724663473795</v>
+        <v>0.1533842189771799</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1258063347980242</v>
+        <v>0.123111103820828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2377928991951277</v>
+        <v>0.2391565247831253</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1385782615964486</v>
+        <v>0.14124942919098</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1609656587782838</v>
+        <v>0.161026003829738</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1578447241493484</v>
+        <v>0.1555210981836686</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3304195666262385</v>
+        <v>0.3295619236996198</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1332772747546118</v>
+        <v>0.1359705252627603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1656408151511876</v>
+        <v>0.1628694342528818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1471634413297424</v>
+        <v>0.1472007615992753</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2933546487240888</v>
+        <v>0.2925364554230593</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1643082794605671</v>
+        <v>0.1611954992934462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2022715304379828</v>
+        <v>0.2006658672202012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.169144999378335</v>
+        <v>0.1680195532358166</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2955107805233478</v>
+        <v>0.2948733854576541</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.187629979580184</v>
+        <v>0.1884531498700631</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2121746298116446</v>
+        <v>0.2091869950013117</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2077246575584855</v>
+        <v>0.2070474710541126</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3798422141162687</v>
+        <v>0.3795756581824076</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1689141123268481</v>
+        <v>0.1686448432976557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1987377146886221</v>
+        <v>0.1985718043402177</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1803759529040787</v>
+        <v>0.1791559212373766</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3332054509742853</v>
+        <v>0.3309521671879143</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1050406213807241</v>
+        <v>0.1050682525480221</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1310431895216591</v>
+        <v>0.12946821183635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1386860603909606</v>
+        <v>0.1412199446685894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2644564311619536</v>
+        <v>0.2656769492993712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1342970661876883</v>
+        <v>0.1352220347052391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1470432438683563</v>
+        <v>0.1452490958307996</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.132237265371121</v>
+        <v>0.1310235295873088</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2917589946685254</v>
+        <v>0.2917520421172022</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1270480487362637</v>
+        <v>0.1248464858843698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1424816267147595</v>
+        <v>0.1458962493940115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.143209921739648</v>
+        <v>0.1417463416389202</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2870689926873264</v>
+        <v>0.2863037147186803</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1605024200737289</v>
+        <v>0.1574150878528018</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1887315895025187</v>
+        <v>0.1860446095324009</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1964394412125317</v>
+        <v>0.1963046121555257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3312580364808356</v>
+        <v>0.330098670182091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1903887588533976</v>
+        <v>0.1904907258334629</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2028876069913255</v>
+        <v>0.2011806474752766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1866636957890248</v>
+        <v>0.1844191268876923</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3499847139349168</v>
+        <v>0.3481802152203381</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1644929391720861</v>
+        <v>0.1631931813880465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1846058327170521</v>
+        <v>0.1830185570348453</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1805348251637706</v>
+        <v>0.1812731025340213</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3324759682034965</v>
+        <v>0.3327087510744339</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1540774649566768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3546486322954546</v>
+        <v>0.3546486322954547</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1595191898357045</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1136167371857232</v>
+        <v>0.1146023977204379</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.147075939862731</v>
+        <v>0.148055123034087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1316367626787215</v>
+        <v>0.1325456097404807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3233324188012128</v>
+        <v>0.3280975073981895</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1351494411158208</v>
+        <v>0.1376172312476884</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1554713426340429</v>
+        <v>0.1575599428243883</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1477211776173063</v>
+        <v>0.1508076917569769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3582663448679481</v>
+        <v>0.3581678002494449</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1315778307656431</v>
+        <v>0.1325615965056405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1588658990413611</v>
+        <v>0.1600440460826477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1480004255283032</v>
+        <v>0.1478593551407129</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3507372147746679</v>
+        <v>0.3496038096083112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1558183840265573</v>
+        <v>0.1565501965669367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2005586540500025</v>
+        <v>0.2008710705908442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.176338899000712</v>
+        <v>0.1764531464003503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.38517431164224</v>
+        <v>0.384270864058142</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1824608252030123</v>
+        <v>0.1853713305612112</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2062702157434649</v>
+        <v>0.2070803691681717</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2010818944903266</v>
+        <v>0.2026620541416508</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.409090607994146</v>
+        <v>0.4093858639773197</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1643344415514499</v>
+        <v>0.1643508963431322</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.195903079320511</v>
+        <v>0.1963958649948533</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1829746273270884</v>
+        <v>0.1834721928906803</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3883435588657141</v>
+        <v>0.388718613734529</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1729081448371995</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1487998107173084</v>
@@ -1241,7 +1241,7 @@
         <v>0.1653330058630114</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87055</v>
+        <v>86945</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>120745</v>
+        <v>121403</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>97258</v>
+        <v>97547</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>198381</v>
+        <v>197904</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>83022</v>
+        <v>85544</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>113869</v>
+        <v>112388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>100457</v>
+        <v>101163</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>252732</v>
+        <v>253702</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>181693</v>
+        <v>180295</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>244416</v>
+        <v>245401</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>208953</v>
+        <v>208877</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>464430</v>
+        <v>465913</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124792</v>
+        <v>123877</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>167412</v>
+        <v>164945</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>136428</v>
+        <v>134286</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>246740</v>
+        <v>245069</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>120635</v>
+        <v>121885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>155936</v>
+        <v>153178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>139276</v>
+        <v>142871</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>293745</v>
+        <v>297385</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>234733</v>
+        <v>236469</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>306949</v>
+        <v>307901</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>262805</v>
+        <v>267007</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>529273</v>
+        <v>530222</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>115013</v>
+        <v>112836</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152868</v>
+        <v>156137</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128628</v>
+        <v>125873</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>249425</v>
+        <v>250855</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134198</v>
+        <v>136785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>165974</v>
+        <v>166036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>164618</v>
+        <v>162195</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>353826</v>
+        <v>352907</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>257251</v>
+        <v>262449</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>339408</v>
+        <v>333729</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>303943</v>
+        <v>304020</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>621840</v>
+        <v>620106</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>158032</v>
+        <v>155038</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>205902</v>
+        <v>204267</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>172939</v>
+        <v>171788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>309966</v>
+        <v>309298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>181700</v>
+        <v>182497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>218776</v>
+        <v>215695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>216639</v>
+        <v>215932</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>406749</v>
+        <v>406464</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>326037</v>
+        <v>325517</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>407226</v>
+        <v>406886</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>372538</v>
+        <v>370019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>706314</v>
+        <v>701538</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71175</v>
+        <v>71194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>99150</v>
+        <v>97958</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>105339</v>
+        <v>107264</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>212378</v>
+        <v>213358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>91706</v>
+        <v>92338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>114278</v>
+        <v>112884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>103808</v>
+        <v>102855</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>236984</v>
+        <v>236978</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>172843</v>
+        <v>169848</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>218537</v>
+        <v>223775</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>221197</v>
+        <v>218936</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>463712</v>
+        <v>462476</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108756</v>
+        <v>106664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>142798</v>
+        <v>140765</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>149206</v>
+        <v>149104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>266024</v>
+        <v>265093</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>130009</v>
+        <v>130078</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>157679</v>
+        <v>156352</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>146533</v>
+        <v>144771</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>284278</v>
+        <v>282813</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>223785</v>
+        <v>222017</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>283147</v>
+        <v>280712</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>278847</v>
+        <v>279988</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>537059</v>
+        <v>537435</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>106956</v>
+        <v>107883</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>138950</v>
+        <v>139875</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123418</v>
+        <v>124270</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>320119</v>
+        <v>324837</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>140368</v>
+        <v>142931</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>163540</v>
+        <v>165737</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>154188</v>
+        <v>157410</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>400656</v>
+        <v>400546</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>260522</v>
+        <v>262470</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>317199</v>
+        <v>319552</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>293240</v>
+        <v>292961</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>739488</v>
+        <v>737098</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>146683</v>
+        <v>147372</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189477</v>
+        <v>189773</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>165330</v>
+        <v>165437</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>381346</v>
+        <v>380452</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>189506</v>
+        <v>192529</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>216976</v>
+        <v>217828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>209885</v>
+        <v>211534</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>457494</v>
+        <v>457824</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>325380</v>
+        <v>325412</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>391150</v>
+        <v>392134</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>362536</v>
+        <v>363522</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>818776</v>
+        <v>819567</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
     </row>
     <row r="24">
